--- a/speciesNameConverter.xlsx
+++ b/speciesNameConverter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\MolecularEvolutionFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EF87B9-132B-403B-A5BA-04B23BF74AC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB78A9-4988-4E0B-874F-905A68CFAD03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C6F7853B-798C-4B33-8020-EDB0E69493D0}"/>
+    <workbookView xWindow="0" yWindow="4530" windowWidth="38400" windowHeight="18390" xr2:uid="{C6F7853B-798C-4B33-8020-EDB0E69493D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>aotus_nancymaae</t>
   </si>
   <si>
-    <t>ma's_night_monkey</t>
-  </si>
-  <si>
     <t>ENSANA</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
     <t>choloepus_hoffmanni</t>
   </si>
   <si>
-    <t>Hoffmann's_two_fingered_sloth</t>
-  </si>
-  <si>
     <t>ENSCHO</t>
   </si>
   <si>
@@ -508,6 +502,12 @@
   </si>
   <si>
     <t>ENSETEP</t>
+  </si>
+  <si>
+    <t>mas_night_monkey</t>
+  </si>
+  <si>
+    <t>Hoffmanns_two_fingered_sloth</t>
   </si>
 </sst>
 </file>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12AFC2D-F2F6-4AE5-A17F-9710BBEC3751}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,307 +1152,307 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>120</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>123</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
         <v>137</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>141</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
         <v>143</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
         <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
         <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
         <v>152</v>
-      </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
         <v>155</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/speciesNameConverter.xlsx
+++ b/speciesNameConverter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\MolecularEvolutionFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewharris.2374\Documents\GitHub\MolecularEvolutionFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB78A9-4988-4E0B-874F-905A68CFAD03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B193FA-F005-45C7-BF2A-3FBACDD9AF24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4530" windowWidth="38400" windowHeight="18390" xr2:uid="{C6F7853B-798C-4B33-8020-EDB0E69493D0}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="175">
   <si>
     <t>scientific_name</t>
   </si>
@@ -508,19 +499,76 @@
   </si>
   <si>
     <t>Hoffmanns_two_fingered_sloth</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>carnivora</t>
+  </si>
+  <si>
+    <t>chiroptera</t>
+  </si>
+  <si>
+    <t>perissodactyla</t>
+  </si>
+  <si>
+    <t>artiodactyla</t>
+  </si>
+  <si>
+    <t>cetartiodactyla</t>
+  </si>
+  <si>
+    <t>cetacea</t>
+  </si>
+  <si>
+    <t>eulipotyphyla</t>
+  </si>
+  <si>
+    <t>primates</t>
+  </si>
+  <si>
+    <t>scandentia</t>
+  </si>
+  <si>
+    <t>rodentia</t>
+  </si>
+  <si>
+    <t>lagomorpha</t>
+  </si>
+  <si>
+    <t>pilosa</t>
+  </si>
+  <si>
+    <t>cingulata</t>
+  </si>
+  <si>
+    <t>proboscidea</t>
+  </si>
+  <si>
+    <t>hyracoidea</t>
+  </si>
+  <si>
+    <t>afrosoricida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -539,12 +587,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12AFC2D-F2F6-4AE5-A17F-9710BBEC3751}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,9 +936,10 @@
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,8 +949,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -893,8 +963,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -904,8 +977,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -915,8 +991,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -926,8 +1005,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -937,8 +1019,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -948,8 +1033,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -959,8 +1047,11 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -970,8 +1061,11 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -981,8 +1075,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -992,8 +1089,11 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1003,8 +1103,11 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1014,8 +1117,11 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1025,8 +1131,11 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1036,8 +1145,11 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1047,8 +1159,11 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1058,8 +1173,11 @@
       <c r="C17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1069,8 +1187,11 @@
       <c r="C18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1080,8 +1201,11 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1091,8 +1215,11 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1102,8 +1229,11 @@
       <c r="C21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1113,8 +1243,11 @@
       <c r="C22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1124,8 +1257,11 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1135,8 +1271,11 @@
       <c r="C24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1146,8 +1285,11 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1157,8 +1299,11 @@
       <c r="C26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1168,8 +1313,11 @@
       <c r="C27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1179,8 +1327,11 @@
       <c r="C28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1190,8 +1341,11 @@
       <c r="C29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1201,8 +1355,11 @@
       <c r="C30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1212,8 +1369,11 @@
       <c r="C31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1223,8 +1383,11 @@
       <c r="C32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1234,8 +1397,11 @@
       <c r="C33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -1245,8 +1411,11 @@
       <c r="C34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -1256,8 +1425,11 @@
       <c r="C35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1267,8 +1439,11 @@
       <c r="C36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -1278,8 +1453,11 @@
       <c r="C37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -1289,8 +1467,11 @@
       <c r="C38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -1300,8 +1481,11 @@
       <c r="C39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -1311,8 +1495,11 @@
       <c r="C40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -1322,8 +1509,11 @@
       <c r="C41" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -1333,8 +1523,11 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -1344,8 +1537,11 @@
       <c r="C43" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -1355,8 +1551,11 @@
       <c r="C44" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -1366,8 +1565,11 @@
       <c r="C45" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -1377,8 +1579,11 @@
       <c r="C46" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -1388,8 +1593,11 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -1399,8 +1607,11 @@
       <c r="C48" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -1410,8 +1621,11 @@
       <c r="C49" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -1421,8 +1635,11 @@
       <c r="C50" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -1432,8 +1649,11 @@
       <c r="C51" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -1443,8 +1663,11 @@
       <c r="C52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -1453,6 +1676,9 @@
       </c>
       <c r="C53" t="s">
         <v>155</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
